--- a/Data/Export/Gloabal_SkillEffect_技能效果.xlsx
+++ b/Data/Export/Gloabal_SkillEffect_技能效果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC66553-F40A-4182-99AF-A94839C5EBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A8FC58-4F77-44E8-910C-1E2B4F5F2602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="5265" windowWidth="16620" windowHeight="11385" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillEffects" sheetId="36" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>备注:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,28 +117,91 @@
     <t>Burn</t>
   </si>
   <si>
-    <t>probability : 概率,万分比
+    <t>对目标添加BUFF</t>
+  </si>
+  <si>
+    <t>对目标格放火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddBuff</t>
+  </si>
+  <si>
+    <t>RemoveBuffById</t>
+  </si>
+  <si>
+    <t>RemoveBuffByKind</t>
+  </si>
+  <si>
+    <t>PutoutFire</t>
+  </si>
+  <si>
+    <t>RecureWoundedTroops</t>
+  </si>
+  <si>
+    <t>通过ID移除BUFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过Kind移除BUFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灭火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗伤兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">probability : 概率,万分比
 condition: 条件
-turn : 回合数集合[]
-weight : 回合数命中的权重[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对目标添加BUFF</t>
-  </si>
-  <si>
-    <t>对目标格放火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddBuff</t>
-  </si>
-  <si>
-    <t>probability : 概率,万分比
+buffId : 状态ID
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+probability : 概率,万分比
 condition: 条件
-turn : 回合数集合[]
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+probability : 概率,万分比
+condition: 条件
+values : 回合数集合[]
 weight : 回合数命中的权重[]
-buffId : 添加的状态ID</t>
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+probability : 概率,万分比
+condition: 条件
+values : 回合数集合[]
+weight : 回合数命中的权重[]
+buffId : 添加的状态ID
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+probability : 概率,万分比
+condition: 条件
+buffKind : 状态kind
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+probability : 概率,万分比
+condition: 条件
+values : 值集合[] (百分比)
+weight : 值命中的权重[]
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -146,7 +209,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +257,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -233,7 +305,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -256,6 +328,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -263,7 +357,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -313,23 +407,71 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -641,109 +783,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
-  <dimension ref="A1:AE69"/>
+  <dimension ref="A1:AD69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.25" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.5" style="22" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17" style="2" customWidth="1"/>
-    <col min="14" max="14" width="24.5" style="2" customWidth="1"/>
-    <col min="15" max="15" width="19.75" style="2" customWidth="1"/>
-    <col min="16" max="16" width="20.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.75" style="2" customWidth="1"/>
-    <col min="23" max="23" width="18.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.25" style="2" customWidth="1"/>
-    <col min="25" max="25" width="70.5" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="17.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="41.125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="51.5" style="21" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" style="2" customWidth="1"/>
+    <col min="13" max="13" width="24.5" style="2" customWidth="1"/>
+    <col min="14" max="14" width="19.75" style="2" customWidth="1"/>
+    <col min="15" max="15" width="20.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.75" style="2" customWidth="1"/>
+    <col min="22" max="22" width="18.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.25" style="2" customWidth="1"/>
+    <col min="24" max="24" width="70.5" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:30" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="17" t="s">
+      <c r="D1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="E1" s="36" t="s">
         <v>10</v>
       </c>
+      <c r="F1" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="G1" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="12" t="s">
         <v>19</v>
       </c>
+      <c r="O1" s="12"/>
       <c r="P1" s="12"/>
       <c r="Q1" s="12"/>
       <c r="R1" s="12"/>
       <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
+      <c r="T1" s="16"/>
       <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
+      <c r="V1" s="12"/>
       <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="6"/>
-    </row>
-    <row r="2" spans="1:31" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X1" s="6"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="6"/>
+    </row>
+    <row r="2" spans="1:30" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -757,47 +897,46 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
+      <c r="V2" s="14"/>
       <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
+      <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-    </row>
-    <row r="3" spans="1:31" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:30" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="19" t="s">
+      <c r="D3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="19"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="M3" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -813,852 +952,804 @@
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-    </row>
-    <row r="4" spans="1:31" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:30" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="20"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="L4" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="M4" s="13" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="O4" s="13"/>
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
       <c r="S4" s="13"/>
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
+      <c r="V4" s="15"/>
       <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-    </row>
-    <row r="5" spans="1:31" ht="54" x14ac:dyDescent="0.15">
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="18" t="s">
+    </row>
+    <row r="5" spans="1:30" s="26" customFormat="1" ht="81.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AC5" s="27"/>
+    </row>
+    <row r="6" spans="1:30" s="34" customFormat="1" ht="96" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="30"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AD5" s="4"/>
-    </row>
-    <row r="6" spans="1:31" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="31"/>
+      <c r="AC6" s="31"/>
+    </row>
+    <row r="7" spans="1:30" s="34" customFormat="1" ht="55.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="E7" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="31"/>
+      <c r="AC7" s="31"/>
+    </row>
+    <row r="8" spans="1:30" s="34" customFormat="1" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="31"/>
+      <c r="C8" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AD6" s="4"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B7" s="4"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AD7" s="4"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B8" s="4"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AD8" s="4"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B9" s="4"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AD9" s="4"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B10" s="4"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AD10" s="4"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B11" s="4"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AD11" s="4"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="E8" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="31"/>
+      <c r="AC8" s="31"/>
+    </row>
+    <row r="9" spans="1:30" s="34" customFormat="1" ht="55.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="31"/>
+      <c r="C9" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31"/>
+      <c r="AA9" s="31"/>
+      <c r="AC9" s="31"/>
+    </row>
+    <row r="10" spans="1:30" s="34" customFormat="1" ht="82.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="31"/>
+      <c r="C10" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
+      <c r="AC10" s="31"/>
+    </row>
+    <row r="11" spans="1:30" s="25" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AC11" s="22"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B12" s="4"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="S12" s="4"/>
       <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
       <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AD12" s="4"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AC12" s="4"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B13" s="4"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="S13" s="4"/>
       <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
       <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AD13" s="4"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AC13" s="4"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B14" s="4"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="S14" s="4"/>
       <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
       <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AD14" s="4"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AC14" s="4"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B15" s="4"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="S15" s="4"/>
       <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
       <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AD15" s="4"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="AC15" s="4"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B16" s="4"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="S16" s="4"/>
       <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
       <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AD16" s="4"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AC16" s="4"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B17" s="4"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="S17" s="4"/>
       <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
       <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AD17" s="4"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AC17" s="4"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B18" s="4"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="S18" s="4"/>
       <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
       <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
       <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AD18" s="4"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AC18" s="4"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B19" s="4"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="S19" s="4"/>
       <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
+      <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AD19" s="4"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AC19" s="4"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B20" s="4"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="S20" s="4"/>
       <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
+      <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AD20" s="4"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AC20" s="4"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B21" s="4"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="S21" s="4"/>
       <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
+      <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AD21" s="4"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AC21" s="4"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B22" s="4"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="S22" s="4"/>
       <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
+      <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AD22" s="4"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AC22" s="4"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B23" s="4"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="S23" s="4"/>
       <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
+      <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AD23" s="4"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AC23" s="4"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B24" s="4"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="S24" s="4"/>
       <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
+      <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AD24" s="4"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AC24" s="4"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B25" s="4"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="S25" s="4"/>
       <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
+      <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
       <c r="AA25" s="4"/>
-      <c r="AB25" s="4"/>
-      <c r="AD25" s="4"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AC25" s="4"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B26" s="4"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="4"/>
-      <c r="I26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="S26" s="4"/>
       <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
       <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
-      <c r="AD26" s="4"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AC26" s="4"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="4"/>
-      <c r="I27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="S27" s="4"/>
       <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
       <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
-      <c r="AD27" s="4"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AC27" s="4"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B28" s="4"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="4"/>
-      <c r="I28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="S28" s="4"/>
       <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
       <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
-      <c r="AD28" s="4"/>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AC28" s="4"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B29" s="4"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="4"/>
-      <c r="I29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="S29" s="4"/>
       <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
       <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
-      <c r="AD29" s="4"/>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AC29" s="4"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B30" s="4"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="4"/>
-      <c r="I30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="S30" s="4"/>
       <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
       <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
-      <c r="AB30" s="4"/>
-      <c r="AD30" s="4"/>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AC30" s="4"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B31" s="4"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="4"/>
-      <c r="I31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="S31" s="4"/>
       <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
       <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
       <c r="AA31" s="4"/>
-      <c r="AB31" s="4"/>
-      <c r="AD31" s="4"/>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AC31" s="4"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B32" s="4"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="4"/>
-      <c r="I32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="S32" s="4"/>
       <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
       <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
       <c r="AA32" s="4"/>
-      <c r="AB32" s="4"/>
-      <c r="AD32" s="4"/>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="AC32" s="4"/>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B33" s="4"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="4"/>
-      <c r="I33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="S33" s="4"/>
       <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
       <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
-      <c r="AB33" s="4"/>
-      <c r="AD33" s="4"/>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="AC33" s="4"/>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B34" s="4"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="4"/>
-      <c r="I34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="S34" s="4"/>
       <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
       <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
-      <c r="AB34" s="4"/>
-      <c r="AD34" s="4"/>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="AC34" s="4"/>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B35" s="4"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="4"/>
-      <c r="I35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="S35" s="4"/>
       <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
       <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
       <c r="AA35" s="4"/>
-      <c r="AB35" s="4"/>
-      <c r="AD35" s="4"/>
-    </row>
-    <row r="36" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="AC35" s="4"/>
+    </row>
+    <row r="36" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B36" s="4"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="4"/>
-      <c r="I36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="S36" s="4"/>
       <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
       <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
       <c r="AA36" s="4"/>
-      <c r="AB36" s="4"/>
-      <c r="AD36" s="4"/>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="AC36" s="4"/>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B37" s="4"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="4"/>
-      <c r="I37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="S37" s="4"/>
       <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
       <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
       <c r="AA37" s="4"/>
-      <c r="AB37" s="4"/>
-      <c r="AD37" s="4"/>
-    </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="AC37" s="4"/>
+    </row>
+    <row r="38" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B38" s="4"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="4"/>
-      <c r="I38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="S38" s="4"/>
       <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
       <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
-      <c r="AB38" s="4"/>
-      <c r="AD38" s="4"/>
-    </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="AC38" s="4"/>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B39" s="4"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="4"/>
-      <c r="I39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="S39" s="4"/>
       <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
       <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
       <c r="AA39" s="4"/>
-      <c r="AB39" s="4"/>
-      <c r="AD39" s="4"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="AC39" s="4"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B40" s="4"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="4"/>
-      <c r="I40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="S40" s="4"/>
       <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
+      <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
       <c r="AA40" s="4"/>
-      <c r="AB40" s="4"/>
-      <c r="AD40" s="4"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="AC40" s="4"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B41" s="4"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="4"/>
-      <c r="I41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="S41" s="4"/>
       <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
+      <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
       <c r="AA41" s="4"/>
-      <c r="AB41" s="4"/>
-      <c r="AD41" s="4"/>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="AC41" s="4"/>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B42" s="4"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="4"/>
-      <c r="I42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="S42" s="4"/>
       <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
+      <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
-      <c r="AB42" s="4"/>
-      <c r="AD42" s="4"/>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="AC42" s="4"/>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B43" s="4"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="4"/>
-      <c r="I43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="S43" s="4"/>
       <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
+      <c r="Y43" s="4"/>
       <c r="Z43" s="4"/>
       <c r="AA43" s="4"/>
-      <c r="AB43" s="4"/>
-      <c r="AD43" s="4"/>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="AC43" s="4"/>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B44" s="4"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="4"/>
-      <c r="I44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="S44" s="4"/>
       <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
+      <c r="Y44" s="4"/>
       <c r="Z44" s="4"/>
       <c r="AA44" s="4"/>
-      <c r="AB44" s="4"/>
-      <c r="AD44" s="4"/>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="AC44" s="4"/>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B45" s="4"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
       <c r="AA45" s="4"/>
-      <c r="AB45" s="4"/>
-      <c r="AD45" s="4"/>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="AC45" s="4"/>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B46" s="4"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="4"/>
-      <c r="Z46" s="4"/>
-      <c r="AB46" s="4"/>
-      <c r="AD46" s="4"/>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="C46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="AA46" s="4"/>
+      <c r="AC46" s="4"/>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B47" s="4"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B48" s="4"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B49" s="4"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B50" s="4"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C50" s="4"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B51" s="4"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C51" s="4"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B52" s="4"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C52" s="4"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B53" s="4"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C53" s="4"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B54" s="4"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="4"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C54" s="4"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B55" s="4"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B56" s="4"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C56" s="4"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B57" s="4"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="4"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B58" s="4"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="4"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C58" s="4"/>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B59" s="4"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="4"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C59" s="4"/>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B60" s="4"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="4"/>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C60" s="4"/>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B61" s="4"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="4"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C61" s="4"/>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B62" s="4"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="4"/>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C62" s="4"/>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B63" s="4"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="4"/>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C63" s="4"/>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B64" s="4"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="4"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C64" s="4"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B65" s="4"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="4"/>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C65" s="4"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B66" s="4"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="4"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C66" s="4"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B67" s="4"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C67" s="4"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B68" s="4"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="4"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C68" s="4"/>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B69" s="4"/>
     </row>
   </sheetData>
